--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Sno</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Accepts no parameters and waits for page to render itself. It does that by observing network state. Step never triggers test failure and waits for maximum period of 30 seconds</t>
+  </si>
+  <si>
+    <t>textBoxShouldHaveValue</t>
+  </si>
+  <si>
+    <t>Accepts two parameters @locator and @testData. It gets the text from textBox and validates against the @testData provided. If the validation fails testing should still continue</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,12 +739,26 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Sno</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>Accepts two parameters @locator and @testData. It gets the text from textBox and validates against the @testData provided. If the validation fails testing should still continue</t>
+  </si>
+  <si>
+    <t>elementShouldNotBePresent</t>
+  </si>
+  <si>
+    <t>Accepts no parameters and verifies element is not available in DOM. Returns true if element is not available in DOM</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>isButtonEnabled</t>
+  </si>
+  <si>
+    <t>isButtonDisabled</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Checks if the Button is enabled. Returns true if the button is enabled</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Checks if the Button is disabled Returns true if the button is disabled</t>
   </si>
 </sst>
 </file>
@@ -186,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +216,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,6 +785,48 @@
         <v>40</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B2:D16">
     <sortCondition ref="B2"/>

--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/CompilerDictionary/KeywordDictionary/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4640E36-0BB5-D345-AD65-EC2F268E7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
@@ -169,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,7 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,14 +233,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +281,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -345,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,22 +526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,7 +583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -603,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -617,7 +625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -645,7 +653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -659,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -673,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -687,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -701,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -715,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -729,7 +737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -743,7 +751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -771,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -785,7 +793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -799,11 +807,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
@@ -813,11 +821,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
@@ -828,7 +836,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D16">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Sno</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>Accepts one parameter @locator. Checks if the Button is disabled Returns true if the button is disabled</t>
+  </si>
+  <si>
+    <t>verifyWarningIsDisplayedForTheField</t>
+  </si>
+  <si>
+    <t>Text Field, DropDowns</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Checks if the warning symbol is displayed for the input fields</t>
+  </si>
+  <si>
+    <t>verifyNoWarningIsDisplayedForTheField</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Verifies no warning symbol is displayed for the input fields</t>
   </si>
 </sst>
 </file>
@@ -519,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.90625" customWidth="1"/>
@@ -827,6 +842,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B2:D16">
     <sortCondition ref="B2"/>

--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/CompilerDictionary/KeywordDictionary/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4640E36-0BB5-D345-AD65-EC2F268E7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Sno</t>
   </si>
@@ -170,12 +164,27 @@
   </si>
   <si>
     <t>Accepts one parameter @locator. Checks if the Button is disabled Returns true if the button is disabled</t>
+  </si>
+  <si>
+    <t>verifyWarningIsDisplayedForTheField</t>
+  </si>
+  <si>
+    <t>Text Field, DropDowns</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Checks if the warning symbol is displayed for the input fields</t>
+  </si>
+  <si>
+    <t>verifyNoWarningIsDisplayedForTheField</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator. Verifies no warning symbol is displayed for the input fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -223,6 +232,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,17 +243,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -353,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,22 +533,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -583,7 +590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,7 +604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -611,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -625,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -639,7 +646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -653,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,7 +674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -681,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -695,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -709,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -723,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -737,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -751,7 +758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -765,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -779,7 +786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -793,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -807,11 +814,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
@@ -821,11 +828,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
@@ -835,8 +842,36 @@
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D16">
+  <sortState ref="B2:D16">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
+++ b/src/main/resources/CompilerDictionary/KeywordDictionary/KeywordDictionaryForWebTesting.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/CompilerDictionary/KeywordDictionary/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DCF9E-94FD-7548-91A2-25D5ACC61816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Sno</t>
   </si>
@@ -148,9 +154,6 @@
     <t>elementShouldNotBePresent</t>
   </si>
   <si>
-    <t>Accepts no parameters and verifies element is not available in DOM. Returns true if element is not available in DOM</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -179,12 +182,84 @@
   </si>
   <si>
     <t>Accepts one parameter @locator. Verifies no warning symbol is displayed for the input fields</t>
+  </si>
+  <si>
+    <t>Function Description</t>
+  </si>
+  <si>
+    <t>Verify {@locator} must be visible on the page.</t>
+  </si>
+  <si>
+    <t>Click on {@locator}.</t>
+  </si>
+  <si>
+    <t>Trigger lazy load by scrolling down page a little and then click on {@locator} once it appears on page.</t>
+  </si>
+  <si>
+    <t>Wait for visibility of {@locator} and then click on it.</t>
+  </si>
+  <si>
+    <t>Select the item at index {@testData} from dropdown {@locator}.</t>
+  </si>
+  <si>
+    <t>Select the item with value {@testData} from dropdown {@locator}.</t>
+  </si>
+  <si>
+    <t>Validate that {@locator} has text equal to {@testData}.</t>
+  </si>
+  <si>
+    <t>Close the currently active browser tab or page.</t>
+  </si>
+  <si>
+    <t>Close the entire browser session.</t>
+  </si>
+  <si>
+    <t>Navigate to the URL provided in {@testData}.</t>
+  </si>
+  <si>
+    <t>Launch a browser instance as per {@testData}.</t>
+  </si>
+  <si>
+    <t>Launch a headless browser instance as per {@testData} for faster testing.</t>
+  </si>
+  <si>
+    <t>Enter {@testData} into text field identified by {@locator}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press Keyboard key {@testData}. </t>
+  </si>
+  <si>
+    <t>Wait for the page to finish rendering without causing test failure.</t>
+  </si>
+  <si>
+    <t>Accepts one parameter @locator and verifies element is not available in DOM. Returns true if element is not available in DOM</t>
+  </si>
+  <si>
+    <t>Verify if button {@locator} is enabled.</t>
+  </si>
+  <si>
+    <t>Verify if button {@locator} is disabled.</t>
+  </si>
+  <si>
+    <t>Verify that a warning icon is shown for field {@locator}.</t>
+  </si>
+  <si>
+    <t>Verify that no warning icon is shown for field {@locator}.</t>
+  </si>
+  <si>
+    <t>Verify that the value of textBox {@locator} must be equal to {@testData}.</t>
+  </si>
+  <si>
+    <t>Verify that the value of textBox {@locator} should be equal to {@testData}.</t>
+  </si>
+  <si>
+    <t>Verify that the {@locator} is not present in the DOM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,17 +297,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,14 +317,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +365,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -360,7 +437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,345 +610,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D16">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
